--- a/doc/04.画面詳細.xlsx
+++ b/doc/04.画面詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\AttendanceManagement\doc\02.外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_yokoyama\Desktop\AttendanceManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39EBB6-5640-43F7-AB75-485761374B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A556F5-930E-45EA-9BA8-45AE44A8C8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15600" tabRatio="850" activeTab="1" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="850" firstSheet="14" activeTab="15" xr2:uid="{7F7FE124-C515-4593-A2BA-1E8E1EFBB3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="245">
   <si>
     <t>変更日</t>
   </si>
@@ -3241,6 +3241,43 @@
     <rPh sb="16" eb="17">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上司社員番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上司の名前</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上司検索</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトは文字表示の隠ぺい</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3249,9 +3286,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
+    <numFmt numFmtId="176" formatCode="[$￥-411]#,##0;[Red]&quot;-&quot;[$￥-411]#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3274,13 +3311,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3372,15 +3402,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3413,7 +3443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3891,7 +3921,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -3922,18 +3952,18 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4017,7 +4047,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4088,17 +4118,17 @@
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4127,7 +4157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4182,7 +4212,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4208,7 +4238,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4234,7 +4264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4334,17 +4364,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4399,7 +4429,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4425,7 +4455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4451,7 +4481,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4480,7 +4510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4535,16 +4565,16 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4599,7 +4629,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4780,16 +4810,16 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5028,17 +5058,17 @@
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5082,22 +5112,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AA3F9F-11AD-4ED2-97F8-0D9C689EF3CC}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5172,7 +5202,7 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5311,17 +5341,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5511,17 +5541,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5575,18 +5605,18 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5615,7 +5645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5641,7 +5671,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="56.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5670,7 +5700,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5696,7 +5726,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5722,7 +5752,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5751,7 +5781,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36">
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5780,7 +5810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36">
+    <row r="8" spans="1:9" ht="37.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5809,7 +5839,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36">
+    <row r="9" spans="1:9" ht="37.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5867,22 +5897,22 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5931,18 +5961,18 @@
       <selection pane="bottomLeft" activeCell="I25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5997,7 +6027,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6023,7 +6053,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="54">
+    <row r="4" spans="1:9" ht="56.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6052,7 +6082,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6078,7 +6108,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6104,7 +6134,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36">
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6133,7 +6163,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36">
+    <row r="8" spans="1:9" ht="37.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6162,7 +6192,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36">
+    <row r="9" spans="1:9" ht="37.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6191,7 +6221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36">
+    <row r="10" spans="1:9" ht="37.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6246,22 +6276,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310E6B2D-4BEE-419C-9740-8961CF55113B}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6316,7 +6346,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="56.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6345,7 +6375,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="54">
+    <row r="4" spans="1:9" ht="56.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6374,7 +6404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6400,7 +6430,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6426,7 +6456,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="126">
+    <row r="7" spans="1:9" ht="131.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6460,7 +6490,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
@@ -6481,12 +6511,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36">
+    <row r="9" spans="1:9" ht="37.5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
@@ -6507,12 +6537,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36">
+    <row r="10" spans="1:9" ht="37.5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
         <v>219</v>
@@ -6533,7 +6563,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36">
+    <row r="11" spans="1:9" ht="37.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6559,7 +6589,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="36">
+    <row r="12" spans="1:9" ht="37.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6763,18 +6793,18 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6803,7 +6833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="72">
+    <row r="2" spans="1:9" ht="75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6829,7 +6859,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6855,7 +6885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6907,7 +6937,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6985,7 +7015,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="72">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7084,18 +7114,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7150,7 +7180,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7231,7 +7261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90">
+    <row r="6" spans="1:9" ht="93.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7260,7 +7290,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36">
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7286,7 +7316,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36">
+    <row r="8" spans="1:9" ht="37.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7312,7 +7342,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36">
+    <row r="9" spans="1:9" ht="37.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7338,7 +7368,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36">
+    <row r="10" spans="1:9" ht="37.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7451,7 +7481,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7464,17 +7495,17 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7688,17 +7719,17 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.33203125" customWidth="1"/>
+    <col min="9" max="9" width="57.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7814,7 +7845,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7917,17 +7948,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7981,18 +8012,18 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8073,7 +8104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8203,17 +8234,17 @@
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8242,7 +8273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8313,18 +8344,18 @@
       <selection pane="bottomLeft" activeCell="G14" sqref="G14:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8353,7 +8384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8382,7 +8413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
+    <row r="3" spans="1:9" ht="37.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8437,7 +8468,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54">
+    <row r="5" spans="1:9" ht="56.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8466,7 +8497,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8492,7 +8523,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36">
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8518,7 +8549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36">
+    <row r="8" spans="1:9" ht="37.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8547,7 +8578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="36">
+    <row r="9" spans="1:9" ht="37.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8573,7 +8604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="36">
+    <row r="10" spans="1:9" ht="37.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8599,7 +8630,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36">
+    <row r="11" spans="1:9" ht="37.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8625,7 +8656,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="36">
+    <row r="12" spans="1:9" ht="37.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8651,7 +8682,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="36">
+    <row r="13" spans="1:9" ht="37.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8677,7 +8708,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="36">
+    <row r="14" spans="1:9" ht="37.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8703,7 +8734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="36">
+    <row r="15" spans="1:9" ht="37.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8729,7 +8760,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="36">
+    <row r="16" spans="1:9" ht="37.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8755,7 +8786,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="54">
+    <row r="17" spans="1:9" ht="56.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8784,7 +8815,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="54">
+    <row r="18" spans="1:9" ht="56.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8835,18 +8866,18 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="18.5" thickBot="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="19.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8875,7 +8906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="36">
+    <row r="2" spans="1:9" ht="37.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8901,7 +8932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54">
+    <row r="3" spans="1:9" ht="56.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8930,7 +8961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
+    <row r="4" spans="1:9" ht="37.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8956,7 +8987,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="36">
+    <row r="5" spans="1:9" ht="37.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8982,7 +9013,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36">
+    <row r="6" spans="1:9" ht="37.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9011,7 +9042,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36">
+    <row r="7" spans="1:9" ht="37.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9037,7 +9068,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36">
+    <row r="8" spans="1:9" ht="37.5">
       <c r="A8">
         <v>7</v>
       </c>
